--- a/smartstore/keyword_orderList.xlsx
+++ b/smartstore/keyword_orderList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\smartstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D3A075-3B39-4591-8833-281921B6D34C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2141B70-5890-4917-A4BA-791C8B4D54E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F04E1627-580C-4CC3-81DB-6874389C1D25}"/>
+    <workbookView xWindow="-120" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{F04E1627-580C-4CC3-81DB-6874389C1D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>오픈마켓</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>롤화장지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토어전용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,12 +238,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,13 +283,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B89495-8796-4604-992A-84FC423FD1AB}">
-  <dimension ref="B2:R29"/>
+  <dimension ref="B2:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -613,104 +626,119 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="5" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="6" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>44307</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>15</v>
@@ -718,7 +746,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -726,7 +754,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
@@ -734,119 +762,137 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>22</v>
+      <c r="B23" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>34</v>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="C3:R3"/>
+    <mergeCell ref="C4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
